--- a/ioaConditions/train1P2Block6Test.xlsx
+++ b/ioaConditions/train1P2Block6Test.xlsx
@@ -34,25 +34,25 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/17_kotako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/17_cracker.png</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
+    <t>trainingaudio/21_papika2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/21_cheese.png</t>
+  </si>
+  <si>
+    <t>pngimages/06_tent.png</t>
   </si>
   <si>
     <t>train1P2</t>
   </si>
   <si>
-    <t>pngimages/11_compass.png</t>
-  </si>
-  <si>
-    <t>pngimages/16_icecream.png</t>
+    <t>pngimages/18_donut.png</t>
+  </si>
+  <si>
+    <t>pngimages/27_kiwi.png</t>
   </si>
 </sst>
 </file>
@@ -470,10 +470,10 @@
         <v>12</v>
       </c>
       <c r="E3">
+        <v>-0.5</v>
+      </c>
+      <c r="F3">
         <v>0.5</v>
-      </c>
-      <c r="F3">
-        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/ioaConditions/train1P2Block6Test.xlsx
+++ b/ioaConditions/train1P2Block6Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/21_papika2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka1.wav</t>
+    <t>trainingaudio/21_papika2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka1.mp3</t>
   </si>
   <si>
     <t>pngimages/21_cheese.png</t>

--- a/ioaConditions/train1P2Block6Test.xlsx
+++ b/ioaConditions/train1P2Block6Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/21_papika2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka1.mp3</t>
+    <t>trainingaudio/21_papika2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka1.ogg</t>
   </si>
   <si>
     <t>pngimages/21_cheese.png</t>

--- a/ioaConditions/train1P2Block6Test.xlsx
+++ b/ioaConditions/train1P2Block6Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/21_papika2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka1.ogg</t>
+    <t>trainingaudio/21_papika2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka1.wav</t>
   </si>
   <si>
     <t>pngimages/21_cheese.png</t>
